--- a/medicine/Enfance/Alain_Wagneur/Alain_Wagneur.xlsx
+++ b/medicine/Enfance/Alain_Wagneur/Alain_Wagneur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Wagneur, né le 28 janvier 1955 dans le 14e arrondissement de Paris, est un écrivain et enseignant français, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à l'école normale de l'Essonne et l'obtention d’une licence de lettres modernes (option cinéma) à l'université de Paris III, Alain Wagneur devient instituteur puis directeur d'école.
 En 1996, il publie son premier roman de littérature pour la jeunesse Classe de mer aux éditions de L'École des loisirs. L'année suivante, il publie à la Série noire son premier roman policier Homicide à bon marché. Depuis, il alterne l'écriture de romans dans ces deux genres.
@@ -547,55 +561,62 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Homicide à bon marché, Gallimard, coll. « Série noire » no 2423, 1996
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Homicide à bon marché, Gallimard, coll. « Série noire » no 2423, 1996
 Macchabées express, Flammarion, 1999
 Drôle de drums, Baleine, coll. « Le Poulpe » no 196, Baleine, 2000
 Terminus plage, Actes Sud, coll. « Babel noir » no 2, 2005
 Hécatombe-les-bains, Actes Sud, coll. « Babel noir » no 14, 2008Grand prix Paul-Féval de littérature populaire 2008
 Comment L.A. ?, La Branche, coll. « Suite noire » no 33, 2010
 Djoliba, fleuve de sang, Actes Sud, coll. « Actes noirs », 2010
-Des milliers de places vides, Actes Sud, coll. « Le Préau », 2014
-Littérature d'enfance et de jeunesse
-Classe de mer, L'École des loisirs, 1995
+Des milliers de places vides, Actes Sud, coll. « Le Préau », 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alain_Wagneur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Wagneur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Classe de mer, L'École des loisirs, 1995
 La Maison des voyages, Gallimard Jeunesse, coll. « Page Blanche » no 9, 1997Coécrit avec Pierrette Fleutiaux. Réédition Gallimard Jeunesse, coll. « Folio Junior » no 1204, 2002
 Onze bals pour Cendrillon, Hachette Jeunesse, 1998
 Protection rapprochée, Bayard, coll. « Je bouquine » no 186, 1999
 La classe connaît la musique, Gallimard Jeunesse, coll. « Folio Junior » no 1110, 2000
 Embrouilles à ma façon, Gallimard Jeunesse, coll. « Hors-piste » no 26, 2005
-Le Ferry des brumes, Gallimard Jeunesse, coll. « Voyage en page » no 18, 2009
-Nouvelle
-Lettre à Madame la Ministre, 2001Publiée dans le recueil Buffet noir aux éditions Cheminements</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alain_Wagneur</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alain_Wagneur</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Filmographie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2011 : Légitime Défense, adaptation de Terminus Plage réalisée par Pierre Lacan</t>
+Le Ferry des brumes, Gallimard Jeunesse, coll. « Voyage en page » no 18, 2009</t>
         </is>
       </c>
     </row>
@@ -620,10 +641,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lettre à Madame la Ministre, 2001Publiée dans le recueil Buffet noir aux éditions Cheminements</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alain_Wagneur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Wagneur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2011 : Légitime Défense, adaptation de Terminus Plage réalisée par Pierre Lacan</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alain_Wagneur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Wagneur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910-68645-1, OCLC 315873361), p. 982-983.</t>
         </is>
